--- a/public/templates/dummy_template_sectionA.xlsx
+++ b/public/templates/dummy_template_sectionA.xlsx
@@ -1,19 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ESG_BRSR\Data Entry\Data_Entry_Application_in_DB\Frontend\BRSR_Data_insert_to_DB_Frontend-main\public\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC716FD-35F7-4B2B-9533-85C69311FA95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="company_master" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="company_contact_mapper" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="company_contacts_details" sheetId="3" r:id="rId6"/>
+    <sheet name="company_master" sheetId="1" r:id="rId1"/>
+    <sheet name="company_contact_mapper" sheetId="2" r:id="rId2"/>
+    <sheet name="company_contacts_details" sheetId="3" r:id="rId3"/>
+    <sheet name="office_type_master_mapper" sheetId="4" r:id="rId4"/>
+    <sheet name="company_location_details" sheetId="5" r:id="rId5"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="39">
   <si>
     <t>Datafields</t>
   </si>
@@ -111,51 +122,95 @@
   </si>
   <si>
     <t>company_contact_mapper</t>
+  </si>
+  <si>
+    <t>office_type_code</t>
+  </si>
+  <si>
+    <t>office_type_master</t>
+  </si>
+  <si>
+    <t>office_type_master_mapper</t>
+  </si>
+  <si>
+    <t>RO</t>
+  </si>
+  <si>
+    <t>[{"XML Tag" : "AddressOfRegisteredOfficeOfCompany", "Context Reference": "DCYMain","column_name":"street","function":"extract_street"},{"XML Tag" : "AddressOfRegisteredOfficeOfCompany", "Context Reference": "DCYMain","column_name":"city_code","function":"extract_city"},{"XML Tag" : "AddressOfRegisteredOfficeOfCompany", "Context Reference": "DCYMain","column_name":"state_or_union_territory_code","function":"extract_state"},{"XML Tag" : "AddressOfRegisteredOfficeOfCompany", "Context Reference": "DCYMain","column_name":"pincode","function":"extract_zip"},{"XML Tag" : "AddressOfRegisteredOfficeOfCompany", "Context Reference": "DCYMain","column_name":"country_code","function":"extract_country_code"},{"XML Tag" : "AddressOfRegisteredOfficeOfCompany", "Context Reference": "DCYMain","column_name":"full_address"}]</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>[{"XML Tag" : "AddressOfCorporateOfficeOfCompany", "Context Reference": "DCYMain","column_name":"street","function":"extract_street"},{"XML Tag" : "AddressOfCorporateOfficeOfCompany", "Context Reference": "DCYMain","column_name":"city_code","function":"extract_city"},{"XML Tag" : "AddressOfCorporateOfficeOfCompany", "Context Reference": "DCYMain","column_name":"state_or_union_territory_code","function":"extract_state"},{"XML Tag" : "AddressOfCorporateOfficeOfCompany", "Context Reference": "DCYMain","column_name":"pincode","function":"extract_zip"},{"XML Tag" : "AddressOfRegisteredOfficeOfCompany", "Context Reference": "DCYMain","column_name":"country_code","function":"extract_country_code"},{"XML Tag" : "AddressOfRegisteredOfficeOfCompany", "Context Reference": "DCYMain","column_name":"full_address"}]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF222222"/>
       <name val="Google Sans"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -169,72 +224,82 @@
         <bgColor rgb="FFD8E5F8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE1E9F7"/>
+        <bgColor rgb="FFE1E9F7"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
-    <border/>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="18">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -424,20 +489,23 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -485,7 +553,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -496,9 +564,10 @@
       <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="H2" s="11"/>
       <c r="I2" s="2"/>
       <c r="J2" s="5" t="s">
         <v>13</v>
@@ -520,7 +589,7 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -531,9 +600,10 @@
       <c r="F3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="H3" s="11"/>
       <c r="I3" s="2"/>
       <c r="J3" s="5" t="s">
         <v>13</v>
@@ -555,7 +625,7 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -566,9 +636,10 @@
       <c r="F4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="10" t="s">
         <v>16</v>
       </c>
+      <c r="H4" s="11"/>
       <c r="I4" s="2"/>
       <c r="J4" s="5" t="s">
         <v>17</v>
@@ -590,7 +661,7 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -601,9 +672,10 @@
       <c r="F5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="H5" s="11"/>
       <c r="I5" s="2"/>
       <c r="J5" s="5" t="s">
         <v>13</v>
@@ -625,7 +697,7 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -636,9 +708,10 @@
       <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="10" t="s">
         <v>21</v>
       </c>
+      <c r="H6" s="11"/>
       <c r="I6" s="2"/>
       <c r="J6" s="5" t="s">
         <v>13</v>
@@ -668,24 +741,25 @@
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="65.5"/>
+    <col min="2" max="2" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -719,7 +793,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
@@ -753,7 +827,7 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:26">
       <c r="A3" s="3" t="s">
         <v>26</v>
       </c>
@@ -788,21 +862,22 @@
       <c r="Z3" s="2"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -850,7 +925,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -861,9 +936,10 @@
       <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="H2" s="11"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
         <v>13</v>
@@ -885,7 +961,7 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -921,7 +997,7 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
@@ -959,6 +1035,161 @@
   <mergeCells count="1">
     <mergeCell ref="G2:H2"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0663F683-1F03-404B-8227-9BC88334682A}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="409.5">
+      <c r="A2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="409.5">
+      <c r="A3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F789E888-760B-4808-B831-D5596E9B30A6}">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15">
+      <c r="A2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="11"/>
+      <c r="J2" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15">
+      <c r="A3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="14.25">
+      <c r="A4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G2:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>